--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BD330-0821-42FC-8835-1C1FAAE27D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8A825-B22D-44B0-A321-339FA2EAA2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1277,6 +1277,42 @@
   </si>
   <si>
     <t>\I: New Fuel Supply</t>
+  </si>
+  <si>
+    <t>ELE_NEW_FUEL_CELL</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HYDROGEN_CCGT</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen Gas Power Plants</t>
+  </si>
+  <si>
+    <t>IMP_HYDROGEN</t>
+  </si>
+  <si>
+    <t>MIN_PINK_HYDROGEN</t>
+  </si>
+  <si>
+    <t>MIN_GREEN_HYDROGEN</t>
+  </si>
+  <si>
+    <t>Hydrogen Import</t>
+  </si>
+  <si>
+    <t>Pink Hydrogen Production</t>
+  </si>
+  <si>
+    <t>Green Hydrogen Production</t>
+  </si>
+  <si>
+    <t>Stationary Hydrogen Fuel Cells</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1530,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,6 +1658,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2068,10 +2108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X104"/>
+  <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2235,19 +2275,19 @@
     </row>
     <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
-        <f>C63</f>
+        <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>D63</f>
+        <f>D67</f>
         <v>Brown Coal Pulverized</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f>M49</f>
+        <f>M53</f>
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$53</f>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2284,7 +2324,7 @@
     </row>
     <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C64</f>
+        <f t="shared" ref="B8:C8" si="0">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
@@ -2292,11 +2332,11 @@
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
-        <f>M49</f>
+        <f>M53</f>
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
-        <f t="shared" ref="E8:E26" si="1">$M$53</f>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="58">
@@ -2315,7 +2355,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K26" si="2">J8</f>
+        <f t="shared" ref="K8:K28" si="1">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2333,19 +2373,19 @@
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="3">C65</f>
+        <f t="shared" ref="B9:C9" si="2">C69</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f>M49</f>
+        <f>M53</f>
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="21">
@@ -2364,7 +2404,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2382,19 +2422,19 @@
     </row>
     <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="4">C66</f>
+        <f t="shared" ref="B10:C10" si="3">C70</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
-        <f>M48</f>
+        <f>M52</f>
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F10" s="37">
@@ -2413,7 +2453,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2431,19 +2471,19 @@
     </row>
     <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="5">C67</f>
+        <f t="shared" ref="B11:C11" si="4">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>M48</f>
+        <f>M52</f>
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F11" s="21">
@@ -2462,7 +2502,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2480,19 +2520,19 @@
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
-        <f t="shared" ref="B12:C26" si="6">C68</f>
+        <f>C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D72</f>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
-        <f>M48</f>
+        <f>M52</f>
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F12" s="58">
@@ -2511,7 +2551,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2529,19 +2569,19 @@
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C73</f>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D73</f>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>M50</f>
+        <f>M54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F13" s="21">
@@ -2560,7 +2600,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -2578,19 +2618,19 @@
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C74</f>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D74</f>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
-        <f>M50</f>
+        <f>M54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F14" s="58">
@@ -2609,7 +2649,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -2627,19 +2667,19 @@
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C75</f>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D75</f>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>M50</f>
+        <f>M54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F15" s="21">
@@ -2658,7 +2698,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -2676,19 +2716,19 @@
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C76</f>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D76</f>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
-        <f>C49</f>
+        <f>C53</f>
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F16" s="60">
@@ -2707,7 +2747,7 @@
         <v>20200</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20200</v>
       </c>
       <c r="L16" s="37">
@@ -2725,19 +2765,19 @@
     </row>
     <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C77</f>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D77</f>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>C49</f>
+        <f>C53</f>
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F17" s="60">
@@ -2773,19 +2813,19 @@
     </row>
     <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C78</f>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D78</f>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
-        <f>M51</f>
+        <f>M55</f>
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F18" s="37">
@@ -2804,7 +2844,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -2822,19 +2862,19 @@
     </row>
     <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C79</f>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D79</f>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f>C48</f>
+        <f>C52</f>
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F19" s="58">
@@ -2853,7 +2893,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -2871,19 +2911,19 @@
     </row>
     <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C80</f>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D80</f>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
-        <f>C50</f>
+        <f>C54</f>
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F20" s="37">
@@ -2902,7 +2942,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -2920,19 +2960,19 @@
     </row>
     <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C81</f>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D81</f>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f>M52</f>
+        <f>M56</f>
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F21" s="21">
@@ -2951,7 +2991,7 @@
         <v>3100</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3100</v>
       </c>
       <c r="L21" s="21">
@@ -2969,19 +3009,19 @@
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C82</f>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D82</f>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
-        <f>M52</f>
+        <f>M56</f>
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F22" s="37">
@@ -3000,7 +3040,7 @@
         <v>4000</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L22" s="37">
@@ -3018,19 +3058,19 @@
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C83</f>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D83</f>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>C51</f>
+        <f>C55</f>
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F23" s="21">
@@ -3049,7 +3089,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3067,19 +3107,19 @@
     </row>
     <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C84</f>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D84</f>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
-        <f t="shared" ref="D24:D26" si="7">C52</f>
+        <f>C56</f>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F24" s="37">
@@ -3098,7 +3138,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3116,19 +3156,19 @@
     </row>
     <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C85</f>
         <v>ELE_NEW_BIOG_LFILL</v>
       </c>
       <c r="C25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D85</f>
         <v>Biogas Landfills</v>
       </c>
       <c r="D25" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f>C57</f>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F25" s="21">
@@ -3147,7 +3187,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3165,19 +3205,19 @@
     </row>
     <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B26:C26" si="5">C86</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D26" si="6">C58</f>
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F26" s="3">
@@ -3196,7 +3236,7 @@
         <v>11500</v>
       </c>
       <c r="K26" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="L26" s="3">
@@ -3212,163 +3252,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" ref="E27:E28" si="7">$M$57</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F27" s="65">
+        <v>2030</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="65">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J27" s="66">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="59">
+        <v>6000</v>
+      </c>
+      <c r="L27" s="65">
+        <v>220</v>
+      </c>
+      <c r="M27" s="67">
+        <v>5</v>
+      </c>
+      <c r="N27" s="65">
+        <v>20</v>
+      </c>
+      <c r="O27" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F28" s="65">
+        <v>2030</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="H28" s="65">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="66">
+        <v>4000</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="L28" s="65">
+        <v>120</v>
+      </c>
+      <c r="M28" s="67">
+        <v>11.1</v>
+      </c>
+      <c r="N28" s="65">
+        <v>30</v>
+      </c>
+      <c r="O28" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="31" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="33" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C34" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E34" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F34" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G34" s="50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="str">
-        <f>C84</f>
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="str">
+        <f>C88</f>
         <v>MIN_WIND-OFF</v>
       </c>
-      <c r="C34" s="51" t="str">
-        <f>D84</f>
+      <c r="C36" s="51" t="str">
+        <f>D88</f>
         <v>Offshore Wind</v>
       </c>
-      <c r="D34" s="52" t="str">
-        <f>C48</f>
+      <c r="D36" s="52" t="str">
+        <f>C52</f>
         <v>WIND-OFF</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54">
+      <c r="E36" s="53"/>
+      <c r="F36" s="54">
         <v>1E-3</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="str">
-        <f t="shared" ref="B35:C39" si="8">C85</f>
+      <c r="G36" s="53"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="str">
+        <f t="shared" ref="B37:C41" si="8">C89</f>
         <v>IMP_URAN</v>
       </c>
-      <c r="C35" s="55" t="str">
+      <c r="C37" s="55" t="str">
         <f t="shared" si="8"/>
         <v>Nuclear Fuel Import</v>
       </c>
-      <c r="D35" s="37" t="str">
-        <f>C49</f>
+      <c r="D37" s="37" t="str">
+        <f>C53</f>
         <v>URAN</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN_GEO</v>
-      </c>
-      <c r="C36" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>Geothermal Mining</v>
-      </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" ref="D36:D40" si="9">C50</f>
-        <v>GEO</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN_BIOG-AGR</v>
-      </c>
-      <c r="C37" s="55" t="str">
-        <f t="shared" si="8"/>
-        <v>Biogas Supply</v>
-      </c>
-      <c r="D37" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>BIOG-AGR</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37">
-        <v>116.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G37" s="37"/>
     </row>
     <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="str">
         <f t="shared" si="8"/>
-        <v>MIN_BIOG-WWTP</v>
+        <v>MIN_GEO</v>
       </c>
       <c r="C38" s="51" t="str">
         <f t="shared" si="8"/>
-        <v>Biogas Supply</v>
+        <v>Geothermal Mining</v>
       </c>
       <c r="D38" s="21" t="str">
-        <f t="shared" si="9"/>
-        <v>BIOG-WWTP</v>
+        <f t="shared" ref="D38:D42" si="9">C54</f>
+        <v>GEO</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21">
-        <v>104.5</v>
+        <v>1E-3</v>
       </c>
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>MIN_BIOG_LFILL</v>
+        <v>MIN_BIOG-AGR</v>
       </c>
       <c r="C39" s="55" t="str">
         <f t="shared" si="8"/>
@@ -3376,322 +3469,257 @@
       </c>
       <c r="D39" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>BIOG_LFILL</v>
+        <v>BIOG-AGR</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37">
+        <v>116.11</v>
+      </c>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG-WWTP</v>
+      </c>
+      <c r="C40" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>BIOG-WWTP</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21">
+        <v>104.5</v>
+      </c>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG_LFILL</v>
+      </c>
+      <c r="C41" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D41" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>BIOG_LFILL</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37">
         <v>127.7</v>
       </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="str">
-        <f>C90</f>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="56" t="str">
+        <f>C94</f>
         <v>MIN_BIOM</v>
       </c>
-      <c r="C40" s="56" t="str">
-        <f>D90</f>
+      <c r="C42" s="56" t="str">
+        <f>D94</f>
         <v>Biomass Supply</v>
       </c>
-      <c r="D40" s="45" t="str">
+      <c r="D42" s="45" t="str">
         <f t="shared" si="9"/>
         <v>BIOM</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45">
+      <c r="E42" s="45"/>
+      <c r="F42" s="45">
         <v>25</v>
       </c>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="43" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="L43" s="9" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="L47" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-    </row>
-    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="49" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="L45" s="18" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="L49" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+    </row>
+    <row r="50" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="M50" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="N50" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="O50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="P50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S50" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:24" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="51" spans="2:19" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="L48" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-    </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="L49" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-    </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="L50" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-    </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="L51" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
     </row>
     <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>25</v>
@@ -3704,12 +3732,12 @@
         <v>24</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="O52" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O52" s="29" t="s">
         <v>25</v>
       </c>
       <c r="P52" s="28"/>
@@ -3717,15 +3745,15 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>25</v>
@@ -3734,227 +3762,289 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="M53" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+    </row>
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="L54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+    </row>
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="L55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+    </row>
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="L56" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="O56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+    </row>
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="L57" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="N53" s="33" t="s">
+      <c r="N57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="O53" s="33" t="s">
+      <c r="O57" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33" t="s">
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="33" t="s">
+      <c r="R57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="S53" s="33" t="s">
+      <c r="S57" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
+    <row r="58" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D58" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E58" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="57" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="60" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="64" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+    <row r="66" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-    </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>25</v>
@@ -3973,10 +4063,10 @@
         <v>34</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>25</v>
@@ -3995,10 +4085,10 @@
         <v>34</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>25</v>
@@ -4017,10 +4107,10 @@
         <v>34</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E70" s="37" t="s">
         <v>25</v>
@@ -4039,10 +4129,10 @@
         <v>34</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>25</v>
@@ -4061,10 +4151,10 @@
         <v>34</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>25</v>
@@ -4083,10 +4173,10 @@
         <v>34</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>25</v>
@@ -4105,10 +4195,10 @@
         <v>34</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>25</v>
@@ -4127,10 +4217,10 @@
         <v>34</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>25</v>
@@ -4149,10 +4239,10 @@
         <v>34</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>25</v>
@@ -4171,10 +4261,10 @@
         <v>34</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>25</v>
@@ -4193,10 +4283,10 @@
         <v>34</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>25</v>
@@ -4215,10 +4305,10 @@
         <v>34</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>25</v>
@@ -4237,10 +4327,10 @@
         <v>34</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>25</v>
@@ -4259,10 +4349,10 @@
         <v>34</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>25</v>
@@ -4281,10 +4371,10 @@
         <v>34</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>25</v>
@@ -4299,126 +4389,134 @@
       <c r="I82" s="37"/>
     </row>
     <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+    </row>
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+    </row>
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-    </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E85" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-    </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
     </row>
     <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>152</v>
+      <c r="C88" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
     <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>153</v>
+        <v>36</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E89" s="37" t="s">
         <v>25</v>
@@ -4430,188 +4528,319 @@
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="45" t="s">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D94" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E94" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45" t="s">
+      <c r="F94" s="45"/>
+      <c r="G94" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-    </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="61"/>
-      <c r="C93" s="62" t="s">
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="61"/>
+      <c r="C99" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="27" t="str">
-        <f>M49</f>
+      <c r="D100" s="27" t="str">
+        <f>M53</f>
         <v>BC</v>
       </c>
-      <c r="E94" s="27" t="str">
-        <f>M48</f>
+      <c r="E100" s="27" t="str">
+        <f>M52</f>
         <v>HC</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
+    <row r="101" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="21" t="str">
-        <f>C63</f>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="21" t="str">
+        <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C102" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D102" s="21">
         <v>110</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="35"/>
-    </row>
-    <row r="97" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="37" t="str">
-        <f t="shared" ref="B97:B104" si="10">C64</f>
+      <c r="E102" s="21"/>
+      <c r="F102" s="35"/>
+    </row>
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="37" t="str">
+        <f t="shared" ref="B103:B110" si="10">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C103" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D103" s="37">
         <v>14</v>
       </c>
-      <c r="E97" s="37"/>
-      <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="str">
+      <c r="E103" s="37"/>
+      <c r="F103" s="39"/>
+    </row>
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C104" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D104" s="21">
         <v>106</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="37" t="str">
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C105" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37">
+      <c r="D105" s="37"/>
+      <c r="E105" s="37">
         <v>94</v>
       </c>
-      <c r="F99" s="37"/>
-    </row>
-    <row r="100" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="str">
+      <c r="F105" s="37"/>
+    </row>
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21">
+      <c r="D106" s="21"/>
+      <c r="E106" s="21">
         <v>94</v>
       </c>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="37" t="str">
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C107" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37">
+      <c r="D107" s="37"/>
+      <c r="E107" s="37">
         <v>12</v>
       </c>
-      <c r="F101" s="37"/>
-    </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="str">
+      <c r="F107" s="37"/>
+    </row>
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C108" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21">
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="37" t="str">
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C109" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37">
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="45" t="str">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="45" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C110" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45">
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45">
         <v>56</v>
       </c>
     </row>
@@ -4636,15 +4865,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4839,6 +5059,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
@@ -4853,14 +5082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4877,4 +5098,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8A825-B22D-44B0-A321-339FA2EAA2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A59790-31FC-4229-A669-718F3AC052AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="173">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,10 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2108,10 +2104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X110"/>
+  <dimension ref="B1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2283,7 @@
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$57</f>
+        <f t="shared" ref="E7:E26" si="0">$M$57</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2324,11 +2320,11 @@
     </row>
     <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C68</f>
+        <f t="shared" ref="B8:C8" si="1">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
@@ -2336,7 +2332,7 @@
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="58">
@@ -2355,7 +2351,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K28" si="1">J8</f>
+        <f t="shared" ref="K8:K28" si="2">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2373,11 +2369,11 @@
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="2">C69</f>
+        <f t="shared" ref="B9:C9" si="3">C69</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
@@ -2385,7 +2381,7 @@
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="21">
@@ -2404,7 +2400,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2422,11 +2418,11 @@
     </row>
     <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="3">C70</f>
+        <f t="shared" ref="B10:C10" si="4">C70</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
@@ -2434,7 +2430,7 @@
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F10" s="37">
@@ -2453,7 +2449,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2471,11 +2467,11 @@
     </row>
     <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="4">C71</f>
+        <f t="shared" ref="B11:C11" si="5">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
@@ -2483,7 +2479,7 @@
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F11" s="21">
@@ -2502,7 +2498,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2520,11 +2516,11 @@
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
-        <f>C72</f>
+        <f t="shared" ref="B12:C25" si="6">C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f>D72</f>
+        <f t="shared" si="6"/>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
@@ -2532,7 +2528,7 @@
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F12" s="58">
@@ -2551,7 +2547,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2569,11 +2565,11 @@
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
-        <f>C73</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f>D73</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
@@ -2581,7 +2577,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F13" s="21">
@@ -2600,7 +2596,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -2618,11 +2614,11 @@
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
-        <f>C74</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f>D74</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
@@ -2630,7 +2626,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F14" s="58">
@@ -2649,7 +2645,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -2667,11 +2663,11 @@
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
-        <f>C75</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>D75</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
@@ -2679,7 +2675,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F15" s="21">
@@ -2698,7 +2694,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -2716,11 +2712,11 @@
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
-        <f>C76</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f>D76</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
@@ -2728,7 +2724,7 @@
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F16" s="60">
@@ -2747,7 +2743,7 @@
         <v>20200</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20200</v>
       </c>
       <c r="L16" s="37">
@@ -2765,11 +2761,11 @@
     </row>
     <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
-        <f>C77</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>D77</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -2777,7 +2773,7 @@
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F17" s="60">
@@ -2813,11 +2809,11 @@
     </row>
     <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
-        <f>C78</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f>D78</f>
+        <f t="shared" si="6"/>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
@@ -2825,7 +2821,7 @@
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F18" s="37">
@@ -2844,7 +2840,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -2862,11 +2858,11 @@
     </row>
     <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
-        <f>C79</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f>D79</f>
+        <f t="shared" si="6"/>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -2874,7 +2870,7 @@
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F19" s="58">
@@ -2893,7 +2889,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -2911,11 +2907,11 @@
     </row>
     <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
-        <f>C80</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f>D80</f>
+        <f t="shared" si="6"/>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
@@ -2923,7 +2919,7 @@
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F20" s="37">
@@ -2942,7 +2938,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -2960,11 +2956,11 @@
     </row>
     <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
-        <f>C81</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f>D81</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
@@ -2972,7 +2968,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F21" s="21">
@@ -2991,7 +2987,7 @@
         <v>3100</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3100</v>
       </c>
       <c r="L21" s="21">
@@ -3009,11 +3005,11 @@
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
-        <f>C82</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f>D82</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
@@ -3021,7 +3017,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F22" s="37">
@@ -3040,7 +3036,7 @@
         <v>4000</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="L22" s="37">
@@ -3058,11 +3054,11 @@
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
-        <f>C83</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f>D83</f>
+        <f t="shared" si="6"/>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -3070,7 +3066,7 @@
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F23" s="21">
@@ -3089,7 +3085,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3107,11 +3103,11 @@
     </row>
     <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
-        <f>C84</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f>D84</f>
+        <f t="shared" si="6"/>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
@@ -3119,7 +3115,7 @@
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F24" s="37">
@@ -3138,7 +3134,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3156,11 +3152,11 @@
     </row>
     <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
-        <f>C85</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
       </c>
       <c r="C25" s="21" t="str">
-        <f>D85</f>
+        <f t="shared" si="6"/>
         <v>Biogas Landfills</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -3168,7 +3164,7 @@
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F25" s="21">
@@ -3187,7 +3183,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3205,19 +3201,19 @@
     </row>
     <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:C26" si="5">C86</f>
+        <f t="shared" ref="B26:C26" si="7">C88</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" ref="D26" si="6">C58</f>
+        <f t="shared" ref="D26" si="8">C58</f>
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>$M$57</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F26" s="3">
@@ -3236,7 +3232,7 @@
         <v>11500</v>
       </c>
       <c r="K26" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="L26" s="3">
@@ -3253,44 +3249,44 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" ref="E27:E28" si="7">$M$57</f>
+        <f t="shared" ref="E27:E28" si="9">$M$57</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="37">
         <v>2030</v>
       </c>
       <c r="G27" s="38">
         <v>0.6</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="37">
         <v>31.536000000000001</v>
       </c>
       <c r="I27" s="38">
         <v>0.9</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="58">
         <v>10000</v>
       </c>
       <c r="K27" s="59">
         <v>6000</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="37">
         <v>220</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="39">
         <v>5</v>
       </c>
-      <c r="N27" s="65">
+      <c r="N27" s="37">
         <v>20</v>
       </c>
       <c r="O27" s="38">
@@ -3298,45 +3294,45 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="37">
         <v>2030</v>
       </c>
       <c r="G28" s="38">
         <v>0.65</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="37">
         <v>31.536000000000001</v>
       </c>
       <c r="I28" s="38">
         <v>0.6</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="58">
         <v>4000</v>
       </c>
       <c r="K28" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="37">
         <v>120</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="39">
         <v>11.1</v>
       </c>
-      <c r="N28" s="65">
+      <c r="N28" s="37">
         <v>30</v>
       </c>
       <c r="O28" s="38">
@@ -3402,11 +3398,11 @@
     </row>
     <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="51" t="str">
-        <f>C88</f>
+        <f>C90</f>
         <v>MIN_WIND-OFF</v>
       </c>
       <c r="C36" s="51" t="str">
-        <f>D88</f>
+        <f>D90</f>
         <v>Offshore Wind</v>
       </c>
       <c r="D36" s="52" t="str">
@@ -3422,11 +3418,11 @@
     </row>
     <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="str">
-        <f t="shared" ref="B37:C41" si="8">C89</f>
+        <f t="shared" ref="B37:C41" si="10">C91</f>
         <v>IMP_URAN</v>
       </c>
       <c r="C37" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Nuclear Fuel Import</v>
       </c>
       <c r="D37" s="37" t="str">
@@ -3441,15 +3437,15 @@
     </row>
     <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_GEO</v>
       </c>
       <c r="C38" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Geothermal Mining</v>
       </c>
       <c r="D38" s="21" t="str">
-        <f t="shared" ref="D38:D42" si="9">C54</f>
+        <f t="shared" ref="D38:D42" si="11">C54</f>
         <v>GEO</v>
       </c>
       <c r="E38" s="21"/>
@@ -3460,15 +3456,15 @@
     </row>
     <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
       </c>
       <c r="C39" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D39" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG-AGR</v>
       </c>
       <c r="E39" s="37"/>
@@ -3479,15 +3475,15 @@
     </row>
     <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
       </c>
       <c r="C40" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D40" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E40" s="21"/>
@@ -3498,15 +3494,15 @@
     </row>
     <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
       </c>
       <c r="C41" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D41" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E41" s="37"/>
@@ -3517,15 +3513,15 @@
     </row>
     <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="56" t="str">
-        <f>C94</f>
+        <f>C96</f>
         <v>MIN_BIOM</v>
       </c>
       <c r="C42" s="56" t="str">
-        <f>D94</f>
+        <f>D96</f>
         <v>Biomass Supply</v>
       </c>
       <c r="D42" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOM</v>
       </c>
       <c r="E42" s="45"/>
@@ -4455,108 +4451,112 @@
       <c r="I85" s="21"/>
     </row>
     <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C86" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="37" t="s">
+      <c r="D88" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E86" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="37" t="s">
+      <c r="E88" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G88" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="46" t="s">
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+    </row>
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-    </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>150</v>
+      <c r="C90" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
     <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>151</v>
+        <v>36</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E91" s="37" t="s">
         <v>25</v>
@@ -4573,10 +4573,10 @@
         <v>37</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>25</v>
@@ -4593,7 +4593,7 @@
         <v>37</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>159</v>
@@ -4608,69 +4608,75 @@
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="45" t="s">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
+      <c r="C94" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" t="s">
-        <v>169</v>
+        <v>37</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="E95" s="37" t="s">
         <v>25</v>
       </c>
+      <c r="F95" s="37"/>
       <c r="G95" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="68" t="s">
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+    </row>
+    <row r="96" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C96" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" t="s">
-        <v>170</v>
-      </c>
-      <c r="E96" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" s="68" t="s">
+      <c r="C96" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45" t="s">
         <v>101</v>
       </c>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>25</v>
@@ -4679,168 +4685,202 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="61"/>
-      <c r="C99" s="62" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="61"/>
+      <c r="C101" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="2" t="s">
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="27" t="str">
+      <c r="D102" s="27" t="str">
         <f>M53</f>
         <v>BC</v>
       </c>
-      <c r="E100" s="27" t="str">
+      <c r="E102" s="27" t="str">
         <f>M52</f>
         <v>HC</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
+    <row r="103" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="str">
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C104" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D104" s="21">
         <v>110</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="35"/>
-    </row>
-    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="37" t="str">
-        <f t="shared" ref="B103:B110" si="10">C68</f>
-        <v>ELE_NEW_BC_PL_CCS</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="37">
-        <v>14</v>
-      </c>
-      <c r="E103" s="37"/>
-      <c r="F103" s="39"/>
-    </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_BC_FBC</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="21">
-        <v>106</v>
-      </c>
       <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
+      <c r="F104" s="35"/>
     </row>
     <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_HC_PC</v>
-      </c>
-      <c r="C105" s="37" t="s">
+        <f t="shared" ref="B105:B112" si="12">C68</f>
+        <v>ELE_NEW_BC_PL_CCS</v>
+      </c>
+      <c r="C105" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37">
-        <v>94</v>
-      </c>
-      <c r="F105" s="37"/>
+      <c r="D105" s="37">
+        <v>14</v>
+      </c>
+      <c r="E105" s="37"/>
+      <c r="F105" s="39"/>
     </row>
     <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_HC_IGCC</v>
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21">
-        <v>94</v>
-      </c>
+      <c r="D106" s="21">
+        <v>106</v>
+      </c>
+      <c r="E106" s="21"/>
       <c r="F106" s="21"/>
     </row>
     <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_HC_IGCC_CCS</v>
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D107" s="37"/>
       <c r="E107" s="37">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F107" s="37"/>
     </row>
     <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_NAT-GAS_CCGT</v>
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21">
-        <v>56</v>
-      </c>
+      <c r="E108" s="21">
+        <v>94</v>
+      </c>
+      <c r="F108" s="21"/>
     </row>
     <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37">
+      <c r="E109" s="37">
+        <v>12</v>
+      </c>
+      <c r="F109" s="37"/>
+    </row>
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_NAT-GAS_CCGT</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="45" t="str">
-        <f t="shared" si="10"/>
+    <row r="112" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="45" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C110" s="45" t="s">
+      <c r="C112" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45">
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45">
         <v>56</v>
       </c>
     </row>
@@ -4854,14 +4894,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5060,23 +5098,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5101,9 +5136,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A59790-31FC-4229-A669-718F3AC052AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0722609-1074-4FB1-8DD7-FF526BC33555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,6 +1658,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -1679,6 +1680,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>416308</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F18F80-3030-2E00-4738-B49191FDA493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="9669780"/>
+          <a:ext cx="7297168" cy="562053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221FEF30-EFD3-1E39-B669-D6799AA0C6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="6934200"/>
+          <a:ext cx="5048250" cy="2441049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2106,8 +2200,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3540,6 +3634,9 @@
       <c r="D43" t="s">
         <v>163</v>
       </c>
+      <c r="F43" s="37">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -3551,6 +3648,9 @@
       <c r="D44" t="s">
         <v>163</v>
       </c>
+      <c r="F44" s="65">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -3561,6 +3661,9 @@
       </c>
       <c r="D45" t="s">
         <v>163</v>
+      </c>
+      <c r="F45" s="37">
+        <v>93.3</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4889,17 +4992,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5098,20 +5204,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5136,14 +5245,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0722609-1074-4FB1-8DD7-FF526BC33555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC6686-97FF-4377-B389-25D733BAD0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="203">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1313,6 +1313,128 @@
   </si>
   <si>
     <t>Stationary Hydrogen Fuel Cells</t>
+  </si>
+  <si>
+    <t>* TechDesc</t>
+  </si>
+  <si>
+    <t>COST~2020</t>
+  </si>
+  <si>
+    <t>COST~2025</t>
+  </si>
+  <si>
+    <t>COST~2030</t>
+  </si>
+  <si>
+    <t>COST~2035</t>
+  </si>
+  <si>
+    <t>COST~2040</t>
+  </si>
+  <si>
+    <t>COST~2045</t>
+  </si>
+  <si>
+    <t>COST~2050</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2020</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2025</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2030</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2035</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2040</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2045</t>
+  </si>
+  <si>
+    <t>ACT_BND~UP~2050</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2020</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2025</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2030</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2035</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2040</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2045</t>
+  </si>
+  <si>
+    <t>ACT_BND~LO~2050</t>
+  </si>
+  <si>
+    <t>Annual Extraction Upper Bound [PJ/a]</t>
+  </si>
+  <si>
+    <t>Annual Extraction Lower Bound [PJ/a]</t>
+  </si>
+  <si>
+    <t>\I: Nazwa procesu</t>
+  </si>
+  <si>
+    <t>Opis procesu</t>
+  </si>
+  <si>
+    <t>Dobro na wyjściu</t>
+  </si>
+  <si>
+    <t>Koszt wydobycia (loco kopalnia)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ograniczenie wydobycia w roku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Czcionka tekstu podstaw."/>
+        <charset val="238"/>
+      </rPr>
+      <t>≤)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ograniczenie wydobycia w roku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(≥)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1323,7 +1445,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1400,8 +1522,27 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Czcionka tekstu podstaw."/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1462,8 +1603,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1520,8 +1673,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1529,8 +1777,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,16 +1909,58 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normalny 3" xfId="8" xr:uid="{9390B71D-4441-4B79-AA74-223F698CF2CD}"/>
     <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
+    <cellStyle name="Procentowy 2" xfId="9" xr:uid="{D781F54D-6C47-4D97-A95A-2CFA8BAA68D6}"/>
+    <cellStyle name="Procentowy 3" xfId="7" xr:uid="{24AD39D5-8FC2-4185-8F9C-C419A0151DEF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1738,8 +2031,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59799</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2198,13 +2491,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X112"/>
+  <dimension ref="B1:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
@@ -2224,7 +2517,7 @@
     <col min="16" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="13.8">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2232,7 +2525,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="17.399999999999999">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2243,7 +2536,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2252,7 +2545,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2270,7 +2563,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="27" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2314,7 +2607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2363,7 +2656,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1">
       <c r="B7" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2412,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2461,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C69</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2510,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C70</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2559,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2608,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2657,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2706,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2755,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2804,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2853,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2901,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2950,7 +3243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2999,7 +3292,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -3048,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -3097,7 +3390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3146,7 +3439,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3195,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3244,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3293,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="B26" s="3" t="str">
         <f t="shared" ref="B26:C26" si="7">C88</f>
         <v>ELE_NEW_BIOM</v>
@@ -3342,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="B27" s="37" t="s">
         <v>161</v>
       </c>
@@ -3387,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="B28" s="37" t="s">
         <v>162</v>
       </c>
@@ -3433,14 +3726,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="17.399999999999999">
       <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="33" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="47" t="s">
@@ -3450,7 +3743,7 @@
       <c r="F33" s="48"/>
       <c r="G33" s="49"/>
     </row>
-    <row r="34" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:42" ht="40.200000000000003" thickBot="1">
       <c r="B34" s="50" t="s">
         <v>1</v>
       </c>
@@ -3469,8 +3762,80 @@
       <c r="G34" s="50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="U34" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="W34" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="X34" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y34" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z34" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA34" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB34" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC34" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD34" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE34" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF34" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG34" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH34" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI34" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ34" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK34" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL34" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM34" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN34" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO34" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP34" s="76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" ht="53.4" thickBot="1">
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
@@ -3489,8 +3854,44 @@
       <c r="G35" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" s="70"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="70"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="70"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="70"/>
+      <c r="AM35" s="70"/>
+      <c r="AN35" s="70"/>
+      <c r="AO35" s="70"/>
+      <c r="AP35" s="69"/>
+    </row>
+    <row r="36" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="B36" s="51" t="str">
         <f>C90</f>
         <v>MIN_WIND-OFF</v>
@@ -3509,8 +3910,44 @@
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="T36" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="U36" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="V36" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="68"/>
+    </row>
+    <row r="37" spans="2:42" ht="18.75" customHeight="1">
       <c r="B37" s="55" t="str">
         <f t="shared" ref="B37:C41" si="10">C91</f>
         <v>IMP_URAN</v>
@@ -3528,8 +3965,38 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="U37" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="V37" s="80">
+        <v>68</v>
+      </c>
+      <c r="W37" s="80">
+        <v>66.7</v>
+      </c>
+      <c r="X37" s="80">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Y37" s="80">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Z37" s="80">
+        <v>62.8</v>
+      </c>
+      <c r="AA37" s="80">
+        <v>61.5</v>
+      </c>
+      <c r="AB37" s="80">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" ht="18.75" customHeight="1">
       <c r="B38" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_GEO</v>
@@ -3547,8 +4014,38 @@
         <v>1E-3</v>
       </c>
       <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="T38" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="U38" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="V38" s="79">
+        <v>120</v>
+      </c>
+      <c r="W38" s="77">
+        <v>116.7</v>
+      </c>
+      <c r="X38" s="79">
+        <v>113.4</v>
+      </c>
+      <c r="Y38" s="77">
+        <v>110.1</v>
+      </c>
+      <c r="Z38" s="79">
+        <v>106.8</v>
+      </c>
+      <c r="AA38" s="77">
+        <v>103.5</v>
+      </c>
+      <c r="AB38" s="79">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" ht="18.75" customHeight="1">
       <c r="B39" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
@@ -3566,8 +4063,38 @@
         <v>116.11</v>
       </c>
       <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="T39" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="U39" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="V39" s="80">
+        <v>95</v>
+      </c>
+      <c r="W39" s="77">
+        <v>93.3</v>
+      </c>
+      <c r="X39" s="80">
+        <v>91.6</v>
+      </c>
+      <c r="Y39" s="77">
+        <v>89.9</v>
+      </c>
+      <c r="Z39" s="80">
+        <v>88.2</v>
+      </c>
+      <c r="AA39" s="77">
+        <v>86.5</v>
+      </c>
+      <c r="AB39" s="80">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" ht="18.75" customHeight="1">
       <c r="B40" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3586,7 +4113,7 @@
       </c>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:42" ht="18.75" customHeight="1">
       <c r="B41" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3605,7 +4132,7 @@
       </c>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="B42" s="56" t="str">
         <f>C96</f>
         <v>MIN_BIOM</v>
@@ -3624,7 +4151,7 @@
       </c>
       <c r="G42" s="45"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:42">
       <c r="B43" t="s">
         <v>166</v>
       </c>
@@ -3635,10 +4162,10 @@
         <v>163</v>
       </c>
       <c r="F43" s="37">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42">
       <c r="B44" t="s">
         <v>167</v>
       </c>
@@ -3648,11 +4175,11 @@
       <c r="D44" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="65">
-        <v>116.7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F44" s="21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42">
       <c r="B45" t="s">
         <v>168</v>
       </c>
@@ -3663,10 +4190,10 @@
         <v>163</v>
       </c>
       <c r="F45" s="37">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42" ht="17.399999999999999">
       <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +4215,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
@@ -3710,7 +4237,7 @@
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
     </row>
-    <row r="50" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" ht="40.200000000000003" thickBot="1">
       <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
@@ -3760,7 +4287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:19" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="106.2" thickBot="1">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -3810,7 +4337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3844,7 +4371,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +4405,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3912,7 +4439,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3946,7 +4473,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="30"/>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1">
       <c r="B56" s="19" t="s">
         <v>24</v>
       </c>
@@ -3980,7 +4507,7 @@
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B57" s="24" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B58" s="22" t="s">
         <v>24</v>
       </c>
@@ -4046,7 +4573,7 @@
       <c r="R58" s="16"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19">
       <c r="B59" s="24" t="s">
         <v>24</v>
       </c>
@@ -4060,18 +4587,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19" ht="17.399999999999999">
       <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" ht="15" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B64" s="18" t="s">
         <v>27</v>
       </c>
@@ -4083,7 +4610,7 @@
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="13.8" thickBot="1">
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
@@ -4109,7 +4636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="40.200000000000003" thickBot="1">
       <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
@@ -4135,7 +4662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
@@ -4157,7 +4684,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
@@ -4179,7 +4706,7 @@
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
@@ -4201,7 +4728,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
@@ -4223,7 +4750,7 @@
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
@@ -4245,7 +4772,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
@@ -4267,7 +4794,7 @@
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
@@ -4289,7 +4816,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
@@ -4311,7 +4838,7 @@
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
@@ -4333,7 +4860,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
@@ -4355,7 +4882,7 @@
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
@@ -4377,7 +4904,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
@@ -4399,7 +4926,7 @@
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
@@ -4421,7 +4948,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
@@ -4443,7 +4970,7 @@
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
@@ -4465,7 +4992,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
@@ -4487,7 +5014,7 @@
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1">
       <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
@@ -4509,7 +5036,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -4531,7 +5058,7 @@
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -4553,7 +5080,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1">
       <c r="B86" s="10" t="s">
         <v>34</v>
       </c>
@@ -4575,7 +5102,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1">
       <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
@@ -4597,7 +5124,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1">
       <c r="B88" s="37" t="s">
         <v>34</v>
       </c>
@@ -4619,7 +5146,7 @@
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1">
       <c r="B89" s="46" t="s">
         <v>160</v>
       </c>
@@ -4631,7 +5158,7 @@
       <c r="H89" s="46"/>
       <c r="I89" s="46"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1">
       <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
@@ -4651,7 +5178,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1">
       <c r="B91" s="37" t="s">
         <v>36</v>
       </c>
@@ -4671,7 +5198,7 @@
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1">
       <c r="B92" s="21" t="s">
         <v>37</v>
       </c>
@@ -4691,7 +5218,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1">
       <c r="B93" s="37" t="s">
         <v>37</v>
       </c>
@@ -4711,7 +5238,7 @@
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1">
       <c r="B94" s="21" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +5258,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1">
       <c r="B95" s="37" t="s">
         <v>37</v>
       </c>
@@ -4751,7 +5278,7 @@
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
     </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="B96" s="45" t="s">
         <v>37</v>
       </c>
@@ -4771,7 +5298,7 @@
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="37" t="s">
         <v>36</v>
       </c>
@@ -4788,7 +5315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="21" t="s">
         <v>37</v>
       </c>
@@ -4805,7 +5332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="37" t="s">
         <v>37</v>
       </c>
@@ -4822,7 +5349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B101" s="61"/>
       <c r="C101" s="62" t="s">
         <v>81</v>
@@ -4831,7 +5358,7 @@
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" ht="13.8" thickBot="1">
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
@@ -4850,7 +5377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" ht="13.8" thickBot="1">
       <c r="B103" s="4" t="s">
         <v>38</v>
       </c>
@@ -4861,7 +5388,7 @@
       <c r="E103" s="41"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="18.75" customHeight="1">
       <c r="B104" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4875,7 +5402,7 @@
       <c r="E104" s="21"/>
       <c r="F104" s="35"/>
     </row>
-    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="18.75" customHeight="1">
       <c r="B105" s="37" t="str">
         <f t="shared" ref="B105:B112" si="12">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4889,7 +5416,7 @@
       <c r="E105" s="37"/>
       <c r="F105" s="39"/>
     </row>
-    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="18.75" customHeight="1">
       <c r="B106" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4903,7 +5430,7 @@
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
     </row>
-    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="18.75" customHeight="1">
       <c r="B107" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4917,7 +5444,7 @@
       </c>
       <c r="F107" s="37"/>
     </row>
-    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="18.75" customHeight="1">
       <c r="B108" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4931,7 +5458,7 @@
       </c>
       <c r="F108" s="21"/>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="18.75" customHeight="1">
       <c r="B109" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4945,7 +5472,7 @@
       </c>
       <c r="F109" s="37"/>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1">
       <c r="B110" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4959,7 +5486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="18.75" customHeight="1">
       <c r="B111" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4973,7 +5500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B112" s="45" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4988,6 +5515,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AJ35:AP35"/>
+    <mergeCell ref="AJ36:AP36"/>
+    <mergeCell ref="V35:AB35"/>
+    <mergeCell ref="V36:AB36"/>
+    <mergeCell ref="AC35:AI35"/>
+    <mergeCell ref="AC36:AI36"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4998,14 +5533,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5204,23 +5737,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5245,9 +5775,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC6686-97FF-4377-B389-25D733BAD0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD7730C-AC62-4CF9-B8EA-6873246E64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="204">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1435,6 +1435,9 @@
       </rPr>
       <t>(≥)</t>
     </r>
+  </si>
+  <si>
+    <t>Very Long Table</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,24 +1912,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1949,6 +1934,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2493,8 +2499,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3146,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1">
+    <row r="17" spans="2:21" ht="18.75" customHeight="1">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1">
+    <row r="18" spans="2:21" ht="18.75" customHeight="1">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -3243,7 +3249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1">
+    <row r="19" spans="2:21" ht="18.75" customHeight="1">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -3292,7 +3298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1">
+    <row r="20" spans="2:21" ht="18.75" customHeight="1">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1">
+    <row r="21" spans="2:21" ht="18.75" customHeight="1">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -3390,7 +3396,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1">
+    <row r="22" spans="2:21" ht="18.75" customHeight="1">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3439,7 +3445,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1">
+    <row r="23" spans="2:21" ht="18.75" customHeight="1">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3488,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1">
+    <row r="24" spans="2:21" ht="18.75" customHeight="1">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3537,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1">
+    <row r="25" spans="2:21" ht="18.75" customHeight="1">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3586,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
+    <row r="26" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="B26" s="3" t="str">
         <f t="shared" ref="B26:C26" si="7">C88</f>
         <v>ELE_NEW_BIOM</v>
@@ -3635,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
+    <row r="27" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="B27" s="37" t="s">
         <v>161</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
+    <row r="28" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="B28" s="37" t="s">
         <v>162</v>
       </c>
@@ -3726,12 +3732,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="17.399999999999999">
+    <row r="31" spans="2:21" ht="17.399999999999999">
       <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
+      <c r="S31" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
     </row>
     <row r="33" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="B33" s="18"/>
@@ -3762,76 +3773,76 @@
       <c r="G34" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S34" s="72" t="s">
+      <c r="S34" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="72" t="s">
+      <c r="T34" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="U34" s="72" t="s">
+      <c r="U34" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="74" t="s">
+      <c r="V34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="W34" s="75" t="s">
+      <c r="W34" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="X34" s="75" t="s">
+      <c r="X34" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="Y34" s="75" t="s">
+      <c r="Y34" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Z34" s="75" t="s">
+      <c r="Z34" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="AA34" s="75" t="s">
+      <c r="AA34" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="AB34" s="76" t="s">
+      <c r="AB34" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="AC34" s="75" t="s">
+      <c r="AC34" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="AD34" s="75" t="s">
+      <c r="AD34" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="AE34" s="75" t="s">
+      <c r="AE34" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="AF34" s="75" t="s">
+      <c r="AF34" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="AG34" s="75" t="s">
+      <c r="AG34" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="AH34" s="75" t="s">
+      <c r="AH34" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="AI34" s="76" t="s">
+      <c r="AI34" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="AJ34" s="75" t="s">
+      <c r="AJ34" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="AK34" s="75" t="s">
+      <c r="AK34" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="AL34" s="75" t="s">
+      <c r="AL34" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="AM34" s="75" t="s">
+      <c r="AM34" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="AN34" s="75" t="s">
+      <c r="AN34" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="AO34" s="75" t="s">
+      <c r="AO34" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="AP34" s="76" t="s">
+      <c r="AP34" s="70" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3854,42 +3865,42 @@
       <c r="G35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S35" s="73" t="s">
+      <c r="S35" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="73" t="s">
+      <c r="T35" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="U35" s="73" t="s">
+      <c r="U35" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="V35" s="66" t="s">
+      <c r="V35" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="70" t="s">
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="AD35" s="70"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="70"/>
-      <c r="AH35" s="70"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="70" t="s">
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="70"/>
-      <c r="AN35" s="70"/>
-      <c r="AO35" s="70"/>
-      <c r="AP35" s="69"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="75"/>
+      <c r="AP35" s="76"/>
     </row>
     <row r="36" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="B36" s="51" t="str">
@@ -3910,42 +3921,42 @@
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="10"/>
-      <c r="S36" s="71" t="s">
+      <c r="S36" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="T36" s="71" t="s">
+      <c r="T36" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="U36" s="71" t="s">
+      <c r="U36" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="V36" s="65" t="s">
+      <c r="V36" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="65" t="s">
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="65" t="s">
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="78"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="68"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AN36" s="78"/>
+      <c r="AO36" s="78"/>
+      <c r="AP36" s="79"/>
     </row>
     <row r="37" spans="2:42" ht="18.75" customHeight="1">
       <c r="B37" s="55" t="str">
@@ -3965,34 +3976,34 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G37" s="37"/>
-      <c r="S37" s="78" t="s">
+      <c r="S37" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="T37" s="78" t="s">
+      <c r="T37" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="U37" s="78" t="s">
+      <c r="U37" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="V37" s="80">
+      <c r="V37" s="74">
         <v>68</v>
       </c>
-      <c r="W37" s="80">
+      <c r="W37" s="74">
         <v>66.7</v>
       </c>
-      <c r="X37" s="80">
+      <c r="X37" s="74">
         <v>65.400000000000006</v>
       </c>
-      <c r="Y37" s="80">
+      <c r="Y37" s="74">
         <v>64.099999999999994</v>
       </c>
-      <c r="Z37" s="80">
+      <c r="Z37" s="74">
         <v>62.8</v>
       </c>
-      <c r="AA37" s="80">
+      <c r="AA37" s="74">
         <v>61.5</v>
       </c>
-      <c r="AB37" s="80">
+      <c r="AB37" s="74">
         <v>60.2</v>
       </c>
     </row>
@@ -4014,34 +4025,34 @@
         <v>1E-3</v>
       </c>
       <c r="G38" s="21"/>
-      <c r="S38" s="78" t="s">
+      <c r="S38" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="T38" s="78" t="s">
+      <c r="T38" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="U38" s="78" t="s">
+      <c r="U38" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="V38" s="79">
+      <c r="V38" s="73">
         <v>120</v>
       </c>
-      <c r="W38" s="77">
+      <c r="W38" s="71">
         <v>116.7</v>
       </c>
-      <c r="X38" s="79">
+      <c r="X38" s="73">
         <v>113.4</v>
       </c>
-      <c r="Y38" s="77">
+      <c r="Y38" s="71">
         <v>110.1</v>
       </c>
-      <c r="Z38" s="79">
+      <c r="Z38" s="73">
         <v>106.8</v>
       </c>
-      <c r="AA38" s="77">
+      <c r="AA38" s="71">
         <v>103.5</v>
       </c>
-      <c r="AB38" s="79">
+      <c r="AB38" s="73">
         <v>100.2</v>
       </c>
     </row>
@@ -4063,34 +4074,34 @@
         <v>116.11</v>
       </c>
       <c r="G39" s="37"/>
-      <c r="S39" s="78" t="s">
+      <c r="S39" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="T39" s="78" t="s">
+      <c r="T39" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="U39" s="78" t="s">
+      <c r="U39" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="V39" s="80">
+      <c r="V39" s="74">
         <v>95</v>
       </c>
-      <c r="W39" s="77">
+      <c r="W39" s="71">
         <v>93.3</v>
       </c>
-      <c r="X39" s="80">
+      <c r="X39" s="74">
         <v>91.6</v>
       </c>
-      <c r="Y39" s="77">
+      <c r="Y39" s="71">
         <v>89.9</v>
       </c>
-      <c r="Z39" s="80">
+      <c r="Z39" s="74">
         <v>88.2</v>
       </c>
-      <c r="AA39" s="77">
+      <c r="AA39" s="71">
         <v>86.5</v>
       </c>
-      <c r="AB39" s="80">
+      <c r="AB39" s="74">
         <v>84.8</v>
       </c>
     </row>
@@ -5542,6 +5553,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5736,17 +5758,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
@@ -5756,6 +5767,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5772,17 +5796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD7730C-AC62-4CF9-B8EA-6873246E64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,13 +37,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G66" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I66" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="172">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1297,158 +1296,30 @@
     <t>IMP_HYDROGEN</t>
   </si>
   <si>
-    <t>MIN_PINK_HYDROGEN</t>
-  </si>
-  <si>
-    <t>MIN_GREEN_HYDROGEN</t>
-  </si>
-  <si>
     <t>Hydrogen Import</t>
   </si>
   <si>
-    <t>Pink Hydrogen Production</t>
-  </si>
-  <si>
-    <t>Green Hydrogen Production</t>
-  </si>
-  <si>
     <t>Stationary Hydrogen Fuel Cells</t>
   </si>
   <si>
-    <t>* TechDesc</t>
-  </si>
-  <si>
-    <t>COST~2020</t>
-  </si>
-  <si>
-    <t>COST~2025</t>
-  </si>
-  <si>
-    <t>COST~2030</t>
-  </si>
-  <si>
-    <t>COST~2035</t>
-  </si>
-  <si>
-    <t>COST~2040</t>
-  </si>
-  <si>
-    <t>COST~2045</t>
-  </si>
-  <si>
-    <t>COST~2050</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2020</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2025</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2030</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2035</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2040</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2045</t>
-  </si>
-  <si>
-    <t>ACT_BND~UP~2050</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2020</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2025</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2030</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2035</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2040</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2045</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO~2050</t>
-  </si>
-  <si>
-    <t>Annual Extraction Upper Bound [PJ/a]</t>
-  </si>
-  <si>
-    <t>Annual Extraction Lower Bound [PJ/a]</t>
-  </si>
-  <si>
-    <t>\I: Nazwa procesu</t>
-  </si>
-  <si>
-    <t>Opis procesu</t>
-  </si>
-  <si>
-    <t>Dobro na wyjściu</t>
-  </si>
-  <si>
-    <t>Koszt wydobycia (loco kopalnia)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ograniczenie wydobycia w roku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Czcionka tekstu podstaw."/>
-        <charset val="238"/>
-      </rPr>
-      <t>≤)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ograniczenie wydobycia w roku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(≥)</t>
-    </r>
-  </si>
-  <si>
-    <t>Very Long Table</t>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>PRE_HYDROGEN</t>
+  </si>
+  <si>
+    <t>Hydrogen PEM Domestic Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1526,26 +1397,15 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Czcionka tekstu podstaw."/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,18 +1468,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1676,103 +1529,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1783,8 +1541,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,61 +1671,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
-    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+  <cellStyles count="11">
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_MIN" xfId="5"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Normalny 3" xfId="8" xr:uid="{9390B71D-4441-4B79-AA74-223F698CF2CD}"/>
+    <cellStyle name="Normalny 10" xfId="3"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
+    <cellStyle name="Normalny 3" xfId="8"/>
     <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
-    <cellStyle name="Procentowy 2" xfId="9" xr:uid="{D781F54D-6C47-4D97-A95A-2CFA8BAA68D6}"/>
-    <cellStyle name="Procentowy 3" xfId="7" xr:uid="{24AD39D5-8FC2-4185-8F9C-C419A0151DEF}"/>
+    <cellStyle name="Procentowy 2" xfId="9"/>
+    <cellStyle name="Procentowy 3" xfId="7"/>
+    <cellStyle name="Zły" xfId="10" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1987,21 +1706,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>416308</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>81993</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F18F80-3030-2E00-4738-B49191FDA493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84F18F80-3030-2E00-4738-B49191FDA493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,21 +1750,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114227</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>202151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221FEF30-EFD3-1E39-B669-D6799AA0C6BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{221FEF30-EFD3-1E39-B669-D6799AA0C6BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +1794,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2210,9 +1929,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2250,9 +1969,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2287,7 +2006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2322,7 +2041,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2495,35 +2214,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AP112"/>
+  <dimension ref="B1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="18" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.8">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2250,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.399999999999999">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +2261,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2551,7 +2270,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2569,7 +2288,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="27" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2662,21 +2381,21 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="str">
-        <f>C67</f>
+        <f>C68</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>D67</f>
+        <f>D68</f>
         <v>Brown Coal Pulverized</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f>M53</f>
+        <f>M55</f>
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f t="shared" ref="E7:E26" si="0">$M$57</f>
+        <f t="shared" ref="E7:E26" si="0">$M$59</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2711,17 +2430,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="1">C68</f>
+        <f>C69</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>D69</f>
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
-        <f>M53</f>
+        <f>M55</f>
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
@@ -2744,7 +2463,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K28" si="2">J8</f>
+        <f t="shared" ref="K8:K29" si="1">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2760,17 +2479,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="3">C69</f>
+        <f t="shared" ref="B9:C9" si="2">C70</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f>M53</f>
+        <f>M55</f>
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
@@ -2793,7 +2512,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2809,17 +2528,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="4">C70</f>
+        <f t="shared" ref="B10:C10" si="3">C71</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
@@ -2842,7 +2561,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2858,17 +2577,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="5">C71</f>
+        <f t="shared" ref="B11:C11" si="4">C72</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
@@ -2891,7 +2610,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2907,17 +2626,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="str">
-        <f t="shared" ref="B12:C25" si="6">C72</f>
+        <f t="shared" ref="B12:C25" si="5">C73</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
@@ -2940,7 +2659,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2956,17 +2675,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>M54</f>
+        <f>M56</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
@@ -2989,7 +2708,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -3005,17 +2724,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
-        <f>M54</f>
+        <f>M56</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
@@ -3038,7 +2757,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -3054,17 +2773,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>M54</f>
+        <f>M56</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
@@ -3087,7 +2806,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -3103,17 +2822,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
-        <f>C53</f>
+        <f>C54</f>
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
@@ -3136,7 +2855,7 @@
         <v>20200</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20200</v>
       </c>
       <c r="L16" s="37">
@@ -3152,17 +2871,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="18.75" customHeight="1">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>C53</f>
+        <f>C54</f>
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
@@ -3200,17 +2919,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="18.75" customHeight="1">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
-        <f>M55</f>
+        <f>M57</f>
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
@@ -3233,7 +2952,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -3249,17 +2968,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.75" customHeight="1">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f>C52</f>
+        <f>C53</f>
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
@@ -3282,7 +3001,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -3298,17 +3017,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="18.75" customHeight="1">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
-        <f>C54</f>
+        <f>C55</f>
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
@@ -3331,7 +3050,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -3347,17 +3066,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="18.75" customHeight="1">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f>M56</f>
+        <f>M58</f>
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
@@ -3380,7 +3099,7 @@
         <v>3100</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3100</v>
       </c>
       <c r="L21" s="21">
@@ -3396,17 +3115,17 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18.75" customHeight="1">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
-        <f>M56</f>
+        <f>M58</f>
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
@@ -3429,7 +3148,7 @@
         <v>4000</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L22" s="37">
@@ -3445,17 +3164,17 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="18.75" customHeight="1">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>C55</f>
+        <f>C56</f>
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
@@ -3478,7 +3197,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3494,17 +3213,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="18.75" customHeight="1">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
-        <f>C56</f>
+        <f>C57</f>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
@@ -3527,7 +3246,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3543,17 +3262,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.75" customHeight="1">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ELE_NEW_BIOG_LFILL</v>
       </c>
       <c r="C25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Biogas Landfills</v>
       </c>
       <c r="D25" s="21" t="str">
-        <f>C57</f>
+        <f>C58</f>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
@@ -3576,7 +3295,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3592,17 +3311,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:C26" si="7">C88</f>
+        <f t="shared" ref="B26:C26" si="6">C89</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" ref="D26" si="8">C58</f>
+        <f>C59</f>
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
@@ -3625,7 +3344,7 @@
         <v>11500</v>
       </c>
       <c r="K26" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="L26" s="3">
@@ -3641,18 +3360,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" ref="E27:E28" si="9">$M$57</f>
+        <f t="shared" ref="E27:E28" si="7">$M$59</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F27" s="37">
@@ -3686,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="18.75" customHeight="1" thickBot="1">
+    <row r="28" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>162</v>
       </c>
@@ -3697,7 +3416,7 @@
         <v>163</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F28" s="37">
@@ -3716,7 +3435,7 @@
         <v>4000</v>
       </c>
       <c r="K28" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L28" s="37">
@@ -3732,715 +3451,455 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="17.399999999999999">
-      <c r="B31" s="12" t="s">
+    <row r="29" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="21">
+        <v>2025</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="H29" s="37">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I29" s="38">
+        <v>1</v>
+      </c>
+      <c r="J29" s="58">
+        <v>3700</v>
+      </c>
+      <c r="K29" s="65">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+      <c r="L29" s="37">
+        <v>210</v>
+      </c>
+      <c r="M29" s="39">
+        <v>39</v>
+      </c>
+      <c r="N29" s="37">
+        <v>15</v>
+      </c>
+      <c r="O29" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="10"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="S31" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-    </row>
-    <row r="33" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="47" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="2:42" ht="40.200000000000003" thickBot="1">
-      <c r="B34" s="50" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C36" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D36" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E36" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F36" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G36" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S34" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="T34" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="U34" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="V34" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="W34" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="X34" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y34" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z34" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA34" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB34" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC34" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD34" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE34" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF34" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG34" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH34" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI34" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ34" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK34" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL34" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM34" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN34" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO34" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP34" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="2:42" ht="53.4" thickBot="1">
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="37" spans="2:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S35" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="T35" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="V35" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="W35" s="75"/>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="75"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="75"/>
-      <c r="AP35" s="76"/>
-    </row>
-    <row r="36" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B36" s="51" t="str">
-        <f>C90</f>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="51" t="str">
+        <f>C91</f>
         <v>MIN_WIND-OFF</v>
       </c>
-      <c r="C36" s="51" t="str">
-        <f>D90</f>
+      <c r="C38" s="51" t="str">
+        <f>D91</f>
         <v>Offshore Wind</v>
       </c>
-      <c r="D36" s="52" t="str">
-        <f>C52</f>
+      <c r="D38" s="52" t="str">
+        <f>C53</f>
         <v>WIND-OFF</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54">
+      <c r="E38" s="53"/>
+      <c r="F38" s="54">
         <v>1E-3</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="I36" s="10"/>
-      <c r="S36" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="T36" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="U36" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="V36" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="78"/>
-      <c r="AF36" s="78"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="78"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK36" s="78"/>
-      <c r="AL36" s="78"/>
-      <c r="AM36" s="78"/>
-      <c r="AN36" s="78"/>
-      <c r="AO36" s="78"/>
-      <c r="AP36" s="79"/>
-    </row>
-    <row r="37" spans="2:42" ht="18.75" customHeight="1">
-      <c r="B37" s="55" t="str">
-        <f t="shared" ref="B37:C41" si="10">C91</f>
+      <c r="G38" s="53"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="55" t="str">
+        <f t="shared" ref="B39:C43" si="8">C92</f>
         <v>IMP_URAN</v>
       </c>
-      <c r="C37" s="55" t="str">
-        <f t="shared" si="10"/>
+      <c r="C39" s="55" t="str">
+        <f t="shared" si="8"/>
         <v>Nuclear Fuel Import</v>
       </c>
-      <c r="D37" s="37" t="str">
-        <f>C53</f>
+      <c r="D39" s="37" t="str">
+        <f>C54</f>
         <v>URAN</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G37" s="37"/>
-      <c r="S37" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="T37" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="U37" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="V37" s="74">
-        <v>68</v>
-      </c>
-      <c r="W37" s="74">
-        <v>66.7</v>
-      </c>
-      <c r="X37" s="74">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="Y37" s="74">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="Z37" s="74">
-        <v>62.8</v>
-      </c>
-      <c r="AA37" s="74">
-        <v>61.5</v>
-      </c>
-      <c r="AB37" s="74">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:42" ht="18.75" customHeight="1">
-      <c r="B38" s="51" t="str">
-        <f t="shared" si="10"/>
-        <v>MIN_GEO</v>
-      </c>
-      <c r="C38" s="51" t="str">
-        <f t="shared" si="10"/>
-        <v>Geothermal Mining</v>
-      </c>
-      <c r="D38" s="21" t="str">
-        <f t="shared" ref="D38:D42" si="11">C54</f>
-        <v>GEO</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="S38" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="T38" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="U38" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="V38" s="73">
-        <v>120</v>
-      </c>
-      <c r="W38" s="71">
-        <v>116.7</v>
-      </c>
-      <c r="X38" s="73">
-        <v>113.4</v>
-      </c>
-      <c r="Y38" s="71">
-        <v>110.1</v>
-      </c>
-      <c r="Z38" s="73">
-        <v>106.8</v>
-      </c>
-      <c r="AA38" s="71">
-        <v>103.5</v>
-      </c>
-      <c r="AB38" s="73">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:42" ht="18.75" customHeight="1">
-      <c r="B39" s="55" t="str">
-        <f t="shared" si="10"/>
-        <v>MIN_BIOG-AGR</v>
-      </c>
-      <c r="C39" s="55" t="str">
-        <f t="shared" si="10"/>
-        <v>Biogas Supply</v>
-      </c>
-      <c r="D39" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>BIOG-AGR</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37">
-        <v>116.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G39" s="37"/>
-      <c r="S39" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="T39" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="U39" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="V39" s="74">
-        <v>95</v>
-      </c>
-      <c r="W39" s="71">
-        <v>93.3</v>
-      </c>
-      <c r="X39" s="74">
-        <v>91.6</v>
-      </c>
-      <c r="Y39" s="71">
-        <v>89.9</v>
-      </c>
-      <c r="Z39" s="74">
-        <v>88.2</v>
-      </c>
-      <c r="AA39" s="71">
-        <v>86.5</v>
-      </c>
-      <c r="AB39" s="74">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:42" ht="18.75" customHeight="1">
+    </row>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="51" t="str">
-        <f t="shared" si="10"/>
-        <v>MIN_BIOG-WWTP</v>
+        <f t="shared" si="8"/>
+        <v>MIN_GEO</v>
       </c>
       <c r="C40" s="51" t="str">
-        <f t="shared" si="10"/>
-        <v>Biogas Supply</v>
+        <f t="shared" si="8"/>
+        <v>Geothermal Mining</v>
       </c>
       <c r="D40" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>BIOG-WWTP</v>
+        <f>C55</f>
+        <v>GEO</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21">
-        <v>104.5</v>
+        <v>1E-3</v>
       </c>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:42" ht="18.75" customHeight="1">
+    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="55" t="str">
-        <f t="shared" si="10"/>
-        <v>MIN_BIOG_LFILL</v>
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG-AGR</v>
       </c>
       <c r="C41" s="55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D41" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>BIOG_LFILL</v>
+        <f>C56</f>
+        <v>BIOG-AGR</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="37">
+        <v>116.11</v>
+      </c>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG-WWTP</v>
+      </c>
+      <c r="C42" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D42" s="21" t="str">
+        <f>C57</f>
+        <v>BIOG-WWTP</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21">
+        <v>104.5</v>
+      </c>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG_LFILL</v>
+      </c>
+      <c r="C43" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D43" s="37" t="str">
+        <f>C58</f>
+        <v>BIOG_LFILL</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37">
         <v>127.7</v>
       </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="2:42" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B42" s="56" t="str">
-        <f>C96</f>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="56" t="str">
+        <f>C97</f>
         <v>MIN_BIOM</v>
       </c>
-      <c r="C42" s="56" t="str">
-        <f>D96</f>
+      <c r="C44" s="56" t="str">
+        <f>D97</f>
         <v>Biomass Supply</v>
       </c>
-      <c r="D42" s="45" t="str">
-        <f t="shared" si="11"/>
+      <c r="D44" s="45" t="str">
+        <f>C59</f>
         <v>BIOM</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45">
+      <c r="E44" s="45"/>
+      <c r="F44" s="45">
         <v>25</v>
       </c>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="2:42">
-      <c r="B43" t="s">
+      <c r="G44" s="45"/>
+    </row>
+    <row r="45" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>166</v>
       </c>
-      <c r="C43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="37">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:42">
-      <c r="B44" t="s">
+      <c r="C45" t="s">
         <v>167</v>
-      </c>
-      <c r="C44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="21">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="2:42">
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" t="s">
-        <v>171</v>
       </c>
       <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:42" ht="17.399999999999999">
-      <c r="B47" s="9" t="s">
+      <c r="F45" s="66">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="L47" s="9" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="L49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-    </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B49" s="18" t="s">
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="L49" s="18" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-    </row>
-    <row r="50" spans="2:19" ht="40.200000000000003" thickBot="1">
-      <c r="B50" s="5" t="s">
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+    </row>
+    <row r="52" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="M52" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="N52" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="O52" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="P52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="Q52" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="R52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="S52" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" s="27" t="s">
+    </row>
+    <row r="53" spans="2:24" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="L53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P50" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="S50" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" ht="106.2" thickBot="1">
-      <c r="B51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B52" s="19" t="s">
+    </row>
+    <row r="54" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="C54" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="L52" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O52" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-    </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B53" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="L53" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O53" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-    </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
       <c r="L54" s="28" t="s">
         <v>24</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N54" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O54" s="29" t="s">
         <v>25</v>
@@ -4450,33 +3909,33 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B55" s="24" t="s">
+    <row r="55" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="C55" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
       <c r="L55" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M55" s="30" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O55" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="O55" s="31" t="s">
         <v>25</v>
       </c>
       <c r="P55" s="30"/>
@@ -4484,33 +3943,33 @@
       <c r="R55" s="30"/>
       <c r="S55" s="30"/>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B56" s="19" t="s">
+    <row r="56" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="19" t="s">
+      <c r="C56" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
       <c r="L56" s="28" t="s">
         <v>24</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="O56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O56" s="29" t="s">
         <v>25</v>
       </c>
       <c r="P56" s="28"/>
@@ -4518,588 +3977,614 @@
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B57" s="24" t="s">
+    <row r="57" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="L57" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+    </row>
+    <row r="58" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D58" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E58" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="L57" s="33" t="s">
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="L58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="33" t="s">
+      <c r="M58" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="O58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+    </row>
+    <row r="59" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="L59" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="N57" s="33" t="s">
+      <c r="N59" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="O57" s="33" t="s">
+      <c r="O59" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33" t="s">
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="R57" s="33" t="s">
+      <c r="R59" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="S57" s="33" t="s">
+      <c r="S59" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B58" s="22" t="s">
+    <row r="60" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="22" t="s">
+      <c r="C60" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-    </row>
-    <row r="59" spans="2:19">
-      <c r="B59" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="24" t="s">
+      <c r="L60" s="14"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+    </row>
+    <row r="62" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" ht="17.399999999999999">
-      <c r="B61" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="2:19" ht="15" customHeight="1">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B64" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="40.200000000000003" thickBot="1">
-      <c r="B66" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B67" s="21" t="s">
+      <c r="F68" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="21" t="s">
+      <c r="C69" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F69" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G69" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B68" s="37" t="s">
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="37" t="s">
+      <c r="C70" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F70" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G70" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B69" s="21" t="s">
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="21" t="s">
+      <c r="C71" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F71" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G71" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B70" s="37" t="s">
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+    </row>
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="37" t="s">
+      <c r="C72" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="37" t="s">
+      <c r="F72" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G72" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-    </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B71" s="21" t="s">
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="C73" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F73" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G73" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B72" s="37" t="s">
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+    </row>
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="37" t="s">
+      <c r="C74" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F74" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G74" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B73" s="21" t="s">
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="21" t="s">
+      <c r="C75" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F75" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G75" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B74" s="37" t="s">
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="37" t="s">
+      <c r="C76" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F76" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G76" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-    </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B75" s="21" t="s">
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="C77" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F77" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G77" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B76" s="37" t="s">
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="37" t="s">
+      <c r="C78" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F78" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G78" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B77" s="21" t="s">
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="21" t="s">
+      <c r="C79" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F79" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G79" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B78" s="37" t="s">
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+    </row>
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="37" t="s">
+      <c r="C80" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F80" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G80" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-    </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B79" s="21" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="21" t="s">
+      <c r="C81" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F81" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G81" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B80" s="37" t="s">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+    </row>
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" s="37" t="s">
+      <c r="C82" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="37" t="s">
+      <c r="F82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="37" t="s">
+      <c r="G82" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-    </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B81" s="21" t="s">
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="21" t="s">
+      <c r="C83" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F83" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G83" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B82" s="37" t="s">
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+    </row>
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="37" t="s">
+      <c r="C84" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F84" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G84" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-    </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B83" s="21" t="s">
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="21" t="s">
+      <c r="C85" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F85" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G85" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-    </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B84" s="37" t="s">
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+    </row>
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-    </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B85" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D86" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-    </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B86" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>172</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>25</v>
@@ -5113,15 +4598,15 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>25</v>
@@ -5135,232 +4620,237 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B88" s="37" t="s">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="37" t="s">
+      <c r="D89" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E89" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F89" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G89" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-    </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B89" s="46" t="s">
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+    </row>
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-    </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B90" s="21" t="s">
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C91" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D91" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21" t="s">
+      <c r="F91" s="21"/>
+      <c r="G91" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B91" s="37" t="s">
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C92" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="37" t="s">
+      <c r="D92" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E92" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37" t="s">
+      <c r="F92" s="37"/>
+      <c r="G92" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-    </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B92" s="21" t="s">
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C93" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D93" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21" t="s">
+      <c r="F93" s="21"/>
+      <c r="G93" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-    </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B93" s="37" t="s">
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C94" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D94" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="37" t="s">
+      <c r="E94" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37" t="s">
+      <c r="F94" s="37"/>
+      <c r="G94" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-    </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B94" s="21" t="s">
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+    </row>
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C95" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D95" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21" t="s">
+      <c r="F95" s="21"/>
+      <c r="G95" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-    </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B95" s="37" t="s">
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C96" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="37" t="s">
+      <c r="D96" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E96" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37" t="s">
+      <c r="F96" s="37"/>
+      <c r="G96" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-    </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B96" s="45" t="s">
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+    </row>
+    <row r="97" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C97" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D97" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E97" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45" t="s">
+      <c r="F97" s="45"/>
+      <c r="G97" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="37" t="s">
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+    </row>
+    <row r="98" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>166</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="37" t="s">
+      <c r="C99" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G97" s="37" t="s">
+      <c r="G99" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" t="s">
-        <v>168</v>
-      </c>
-      <c r="D99" t="s">
-        <v>171</v>
-      </c>
-      <c r="E99" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="101" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="61"/>
       <c r="C101" s="62" t="s">
         <v>81</v>
@@ -5369,7 +4859,7 @@
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="2:7" ht="13.8" thickBot="1">
+    <row r="102" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
@@ -5377,18 +4867,18 @@
         <v>17</v>
       </c>
       <c r="D102" s="27" t="str">
-        <f>M53</f>
+        <f>M55</f>
         <v>BC</v>
       </c>
       <c r="E102" s="27" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>HC</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="13.8" thickBot="1">
+    <row r="103" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>38</v>
       </c>
@@ -5399,9 +4889,9 @@
       <c r="E103" s="41"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="str">
-        <f>C67</f>
+        <f>C68</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C104" s="63" t="s">
@@ -5413,9 +4903,9 @@
       <c r="E104" s="21"/>
       <c r="F104" s="35"/>
     </row>
-    <row r="105" spans="2:7" ht="18.75" customHeight="1">
+    <row r="105" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="37" t="str">
-        <f t="shared" ref="B105:B112" si="12">C68</f>
+        <f t="shared" ref="B105:B112" si="9">C69</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C105" s="64" t="s">
@@ -5427,9 +4917,9 @@
       <c r="E105" s="37"/>
       <c r="F105" s="39"/>
     </row>
-    <row r="106" spans="2:7" ht="18.75" customHeight="1">
+    <row r="106" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C106" s="21" t="s">
@@ -5441,9 +4931,9 @@
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
     </row>
-    <row r="107" spans="2:7" ht="18.75" customHeight="1">
+    <row r="107" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C107" s="37" t="s">
@@ -5455,9 +4945,9 @@
       </c>
       <c r="F107" s="37"/>
     </row>
-    <row r="108" spans="2:7" ht="18.75" customHeight="1">
+    <row r="108" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C108" s="21" t="s">
@@ -5469,9 +4959,9 @@
       </c>
       <c r="F108" s="21"/>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1">
+    <row r="109" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C109" s="37" t="s">
@@ -5483,9 +4973,9 @@
       </c>
       <c r="F109" s="37"/>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1">
+    <row r="110" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C110" s="21" t="s">
@@ -5497,9 +4987,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="18.75" customHeight="1">
+    <row r="111" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C111" s="37" t="s">
@@ -5511,9 +5001,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="112" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C112" s="45" t="s">
@@ -5525,15 +5015,8 @@
         <v>56</v>
       </c>
     </row>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AJ35:AP35"/>
-    <mergeCell ref="AJ36:AP36"/>
-    <mergeCell ref="V35:AB35"/>
-    <mergeCell ref="V36:AB36"/>
-    <mergeCell ref="AC35:AI35"/>
-    <mergeCell ref="AC36:AI36"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5544,26 +5027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5758,28 +5221,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5796,4 +5258,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>